--- a/individual_results/avey/492.xlsx
+++ b/individual_results/avey/492.xlsx
@@ -588,7 +588,7 @@
         <v>0.25</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -721,9 +721,7 @@
       <c r="M4" t="n">
         <v>0.2857142857142858</v>
       </c>
-      <c r="N4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
         <v>0.1818181818181818</v>
@@ -772,9 +770,7 @@
       <c r="M5" t="n">
         <v>0.3125</v>
       </c>
-      <c r="N5" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
         <v>0.25</v>
@@ -836,7 +832,7 @@
         <v>0.7452525342261976</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3726262671130988</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -982,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="b">
         <v>0</v>
@@ -1055,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="b">
         <v>0</v>
@@ -1115,9 +1111,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
-      <c r="N10" t="n">
-        <v>3</v>
-      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
         <v>1</v>
